--- a/data/martini_river_outlets.xlsx
+++ b/data/martini_river_outlets.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A17BC64E-031C-4CE6-8FC4-BD03FE97B3A4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC512C79-04DB-44C9-A233-9535FBB84467}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14393" yWindow="-8" windowWidth="14415" windowHeight="15616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rivers" sheetId="1" r:id="rId1"/>
@@ -380,7 +380,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -399,6 +399,7 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -760,11 +761,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38:C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="11.265625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.6640625" style="3" bestFit="1" customWidth="1"/>
@@ -775,7 +776,7 @@
     <col min="8" max="8" width="9.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="7" customFormat="1">
+    <row r="1" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
         <v>81</v>
       </c>
@@ -801,7 +802,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -824,7 +825,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -847,7 +848,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -870,7 +871,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -894,7 +895,7 @@
       </c>
       <c r="J5" s="25"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -917,7 +918,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -940,7 +941,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -966,7 +967,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -992,7 +993,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1018,7 +1019,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1044,7 +1045,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1070,7 +1071,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1096,7 +1097,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1122,7 +1123,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1148,7 +1149,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1174,7 +1175,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1200,7 +1201,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1222,7 +1223,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1248,7 +1249,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1274,7 +1275,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1300,7 +1301,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1326,7 +1327,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1352,7 +1353,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1378,7 +1379,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1404,7 +1405,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1430,7 +1431,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1456,7 +1457,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1482,7 +1483,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1508,7 +1509,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1534,7 +1535,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1560,7 +1561,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1586,7 +1587,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1612,7 +1613,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1638,7 +1639,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -1659,7 +1660,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -1680,7 +1681,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -1701,7 +1702,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -1722,7 +1723,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -1743,7 +1744,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -1764,7 +1765,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -1785,7 +1786,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -1806,7 +1807,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -1827,7 +1828,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
